--- a/input/test1.xlsx
+++ b/input/test1.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/scriptGen/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95AEEDA-C7C2-B74C-8537-D4CF8ECF7F69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="16620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="腳本設定" sheetId="2" r:id="rId1"/>
-    <sheet name="Script" sheetId="3" r:id="rId2"/>
-    <sheet name="Script3" sheetId="4" r:id="rId3"/>
-    <sheet name="Script2" sheetId="5" r:id="rId4"/>
+    <sheet name="設定值" sheetId="2" r:id="rId1"/>
+    <sheet name="單魚_1" sheetId="3" r:id="rId2"/>
+    <sheet name="單魚_2" sheetId="12" r:id="rId3"/>
+    <sheet name="群魚_1" sheetId="5" r:id="rId4"/>
+    <sheet name="群魚_2" sheetId="13" r:id="rId5"/>
+    <sheet name="單魚預設值_1" sheetId="14" r:id="rId6"/>
+    <sheet name="單魚預設值_2" sheetId="15" r:id="rId7"/>
+    <sheet name="群魚預設值_1" sheetId="16" r:id="rId8"/>
+    <sheet name="群魚預設值_2" sheetId="17" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,38 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
-  <si>
-    <t>權重</t>
-  </si>
-  <si>
-    <t>Next</t>
-  </si>
-  <si>
-    <t>輸出檔名</t>
-  </si>
-  <si>
-    <t>NPC設定</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="32">
   <si>
     <t>種類</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>動作類型</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>預設動作</t>
-  </si>
-  <si>
     <t>1,2,3</t>
   </si>
   <si>
@@ -80,19 +59,7 @@
     <t>腳本名稱</t>
   </si>
   <si>
-    <t>a.json</t>
-  </si>
-  <si>
-    <t>b.json</t>
-  </si>
-  <si>
-    <t>c.json</t>
-  </si>
-  <si>
     <t>間隔時間</t>
-  </si>
-  <si>
-    <t>預設間隔</t>
   </si>
   <si>
     <t>300, 600</t>
@@ -100,13 +67,98 @@
   <si>
     <t>FishScript1</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>權重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸出檔名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一個腳本時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>動作類型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設動作 (陣列)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設間隔 (陣列)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>動作類型</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設動作 (陣列)</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC設定</t>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設間隔 (陣列)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -116,10 +168,32 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="新細明體"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="新細明體"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Wawati TC"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="6">
@@ -350,23 +424,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -377,7 +447,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,9 +474,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{BA75A09F-D40B-9347-88C8-E411E8890324}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -464,6 +561,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1543,106 +1643,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="16.3984375" style="1" customWidth="1"/>
     <col min="6" max="256" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
+    <row r="1" spans="1:5" ht="15.5" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2">
         <v>1000</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>86400</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.5" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4">
+        <v>500</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1655,135 +1706,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="215" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="16.3984375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="16.3984375" style="8" customWidth="1"/>
     <col min="6" max="256" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:5" ht="20" customHeight="1">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="10">
+        <v>11</v>
+      </c>
+      <c r="C3" s="13">
+        <v>13</v>
+      </c>
+      <c r="D3" s="13">
+        <v>16</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13">
+        <v>100</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15">
-        <v>3</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1280</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <v>720</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18">
-        <v>13</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="B10" s="10">
         <v>0</v>
       </c>
-      <c r="C7" s="18">
-        <v>100</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="18">
-        <v>1280</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18">
-        <v>720</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="15">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="C10" s="13">
         <v>360</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1799,96 +1851,285 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDE3116-6DCD-DB4B-A02D-58C4FEBBBC21}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="215" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="16.3984375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="16.3984375" style="17" customWidth="1"/>
     <col min="6" max="256" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:5" ht="20" customHeight="1">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="10">
+        <v>12</v>
+      </c>
+      <c r="C3" s="13">
+        <v>14</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="23">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10">
+        <v>100</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B8" s="10"/>
+      <c r="C8" s="13">
+        <v>1280</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10">
+        <v>600</v>
+      </c>
+      <c r="C9" s="13">
+        <v>720</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10">
+        <v>300</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="177" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13" customHeight="1"/>
+  <cols>
+    <col min="1" max="5" width="16.3984375" style="17" customWidth="1"/>
+    <col min="6" max="256" width="16.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20" customHeight="1">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>11</v>
+      </c>
+      <c r="C4" s="13">
+        <v>13</v>
+      </c>
+      <c r="D4" s="13">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10">
+        <v>500</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>100</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1280</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>720</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18">
-        <v>13</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="B11" s="10">
         <v>0</v>
       </c>
-      <c r="C7" s="18">
-        <v>100</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="C11" s="13">
+        <v>360</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1903,157 +2144,725 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A682E89-2103-2640-818B-7B23FAA079C3}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="177" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="16.3984375" style="23" customWidth="1"/>
+    <col min="1" max="5" width="16.3984375" style="17" customWidth="1"/>
     <col min="6" max="256" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+    <row r="1" spans="1:5" ht="20" customHeight="1">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>11</v>
+      </c>
+      <c r="C4" s="13">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10">
+        <v>500</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="23">
+        <v>300</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15">
-        <v>3</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18">
-        <v>13</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="15">
-        <v>500</v>
-      </c>
-      <c r="C5" s="18">
-        <v>103</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="18">
-        <v>100</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18">
-        <v>1280</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="15">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18">
-        <v>720</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="15">
-        <v>0</v>
-      </c>
-      <c r="C11" s="18">
-        <v>360</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F1908D-B28F-064B-B75B-0721F5011AEE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="179" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13" customHeight="1"/>
+  <cols>
+    <col min="1" max="5" width="16.3984375" style="35" customWidth="1"/>
+    <col min="6" max="256" width="16.3984375" style="26" customWidth="1"/>
+    <col min="257" max="16384" width="16.3984375" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20" customHeight="1">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32">
+        <v>11</v>
+      </c>
+      <c r="C2" s="29">
+        <v>13</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="32">
+        <v>200</v>
+      </c>
+      <c r="C6" s="29">
+        <v>500</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A7" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1280</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A8" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="32">
+        <v>0</v>
+      </c>
+      <c r="C8" s="29">
+        <v>720</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="32">
+        <v>0</v>
+      </c>
+      <c r="C9" s="29">
+        <v>360</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62A2263-8DF2-A94B-88A7-B518446D5825}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="179" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13" customHeight="1"/>
+  <cols>
+    <col min="1" max="5" width="16.3984375" style="35" customWidth="1"/>
+    <col min="6" max="256" width="16.3984375" style="26" customWidth="1"/>
+    <col min="257" max="16384" width="16.3984375" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20" customHeight="1">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32">
+        <v>11</v>
+      </c>
+      <c r="C2" s="29">
+        <v>13</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="32">
+        <v>200</v>
+      </c>
+      <c r="C6" s="29">
+        <v>500</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A7" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="29">
+        <v>1280</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A8" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="29">
+        <v>720</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="29">
+        <v>360</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F72C61-B15F-0D41-B34A-85E153AB85E8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="16.3984375" style="35" customWidth="1"/>
+    <col min="7" max="256" width="16.3984375" style="26" customWidth="1"/>
+    <col min="257" max="16384" width="16.3984375" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" customHeight="1">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="32">
+        <v>11</v>
+      </c>
+      <c r="C4" s="29">
+        <v>13</v>
+      </c>
+      <c r="D4" s="29">
+        <v>16</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="32">
+        <v>500</v>
+      </c>
+      <c r="C5" s="29">
+        <v>103</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A8" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="32">
+        <v>0</v>
+      </c>
+      <c r="C8" s="29">
+        <v>100</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="32">
+        <v>0</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1280</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="32">
+        <v>0</v>
+      </c>
+      <c r="C10" s="29">
+        <v>720</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="32">
+        <v>0</v>
+      </c>
+      <c r="C11" s="29">
+        <v>360</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D4023A-1C93-BA48-8146-3AF1E9E8FE4B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="16.3984375" style="35" customWidth="1"/>
+    <col min="7" max="256" width="16.3984375" style="26" customWidth="1"/>
+    <col min="257" max="16384" width="16.3984375" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" customHeight="1">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="32">
+        <v>11</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="32">
+        <v>500</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A8" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="32">
+        <v>0</v>
+      </c>
+      <c r="C8" s="29">
+        <v>100</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="32">
+        <v>0</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1280</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="32">
+        <v>0</v>
+      </c>
+      <c r="C10" s="29">
+        <v>720</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="32">
+        <v>0</v>
+      </c>
+      <c r="C11" s="29">
+        <v>360</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
